--- a/jupyter-notebooks/2-data-analysis/excel-files/df.xlsx
+++ b/jupyter-notebooks/2-data-analysis/excel-files/df.xlsx
@@ -637,7 +637,7 @@
         <v>0.8277224628259261</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004222752653922001</v>
+        <v>0.004222752653922</v>
       </c>
     </row>
     <row r="11">
@@ -677,7 +677,7 @@
         <v>0.8351381921944351</v>
       </c>
       <c r="F12" t="n">
-        <v>0.004012839375627001</v>
+        <v>0.004012839375627</v>
       </c>
     </row>
     <row r="13">
@@ -797,7 +797,7 @@
         <v>0.8646245607886661</v>
       </c>
       <c r="F18" t="n">
-        <v>0.003975390932630001</v>
+        <v>0.00397539093263</v>
       </c>
     </row>
     <row r="19">
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9346459479257311</v>
+        <v>0.9346459479257312</v>
       </c>
       <c r="F38" t="n">
         <v>0.003597729476949</v>
@@ -1237,7 +1237,7 @@
         <v>0.937928252610687</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004075027172858001</v>
+        <v>0.004075027172858</v>
       </c>
     </row>
     <row r="41">
@@ -1254,7 +1254,7 @@
         <v>0.5</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9347956935261461</v>
+        <v>0.934795693526146</v>
       </c>
       <c r="F41" t="n">
         <v>0.003461887037374</v>
@@ -1294,7 +1294,7 @@
         <v>0.9</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9353866701274011</v>
+        <v>0.9353866701274012</v>
       </c>
       <c r="F43" t="n">
         <v>0.003918590806474</v>
@@ -1394,7 +1394,7 @@
         <v>0.7</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9088692102731161</v>
+        <v>0.908869210273116</v>
       </c>
       <c r="F48" t="n">
         <v>0.001948289419165</v>
@@ -1414,7 +1414,7 @@
         <v>0.9</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9118334557919001</v>
+        <v>0.9118334557919</v>
       </c>
       <c r="F49" t="n">
         <v>0.004180379445089</v>
@@ -1474,7 +1474,7 @@
         <v>0.3</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9200928449894371</v>
+        <v>0.9200928449894372</v>
       </c>
       <c r="F52" t="n">
         <v>0.002572223768325</v>
@@ -1534,7 +1534,7 @@
         <v>0.9</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9562197905677651</v>
+        <v>0.9562197905677652</v>
       </c>
       <c r="F55" t="n">
         <v>0.0031860193897</v>
@@ -1654,7 +1654,7 @@
         <v>0.9</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9425495158271401</v>
+        <v>0.94254951582714</v>
       </c>
       <c r="F61" t="n">
         <v>0.003464449927662</v>
@@ -1774,7 +1774,7 @@
         <v>0.9</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9340272041068931</v>
+        <v>0.9340272041068932</v>
       </c>
       <c r="F67" t="n">
         <v>0.003745656447682</v>
@@ -1914,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9532625419386831</v>
+        <v>0.9532625419386832</v>
       </c>
       <c r="F74" t="n">
         <v>0.003482261700523</v>
@@ -1934,7 +1934,7 @@
         <v>0.1</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9501312892779471</v>
+        <v>0.9501312892779472</v>
       </c>
       <c r="F75" t="n">
         <v>0.003215937791239</v>
@@ -1954,7 +1954,7 @@
         <v>0.3</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9466200702839491</v>
+        <v>0.9466200702839492</v>
       </c>
       <c r="F76" t="n">
         <v>0.004487513046051</v>
@@ -1974,7 +1974,7 @@
         <v>0.5</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9495493187178601</v>
+        <v>0.94954931871786</v>
       </c>
       <c r="F77" t="n">
         <v>0.00420118151836</v>
@@ -1994,7 +1994,7 @@
         <v>0.7</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9499522130467111</v>
+        <v>0.9499522130467112</v>
       </c>
       <c r="F78" t="n">
         <v>0.003657514742522</v>
@@ -2014,7 +2014,7 @@
         <v>0.9</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9491284424965831</v>
+        <v>0.9491284424965832</v>
       </c>
       <c r="F79" t="n">
         <v>0.003197746948402</v>
@@ -2074,7 +2074,7 @@
         <v>0.3</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9067021453642491</v>
+        <v>0.9067021453642492</v>
       </c>
       <c r="F82" t="n">
         <v>0.003012626957947</v>
@@ -2094,7 +2094,7 @@
         <v>0.5</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9227035225360101</v>
+        <v>0.92270352253601</v>
       </c>
       <c r="F83" t="n">
         <v>0.00312924010977</v>
@@ -2114,7 +2114,7 @@
         <v>0.7</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9303621754080701</v>
+        <v>0.93036217540807</v>
       </c>
       <c r="F84" t="n">
         <v>0.003130205399499</v>
@@ -2134,7 +2134,7 @@
         <v>0.9</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9322245243611791</v>
+        <v>0.9322245243611792</v>
       </c>
       <c r="F85" t="n">
         <v>0.003849957184034</v>
@@ -2154,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9016529928226261</v>
+        <v>0.901652992822626</v>
       </c>
       <c r="F86" t="n">
         <v>0.003594040092314</v>
@@ -2174,10 +2174,10 @@
         <v>0.1</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9144902755730111</v>
+        <v>0.9144902755730112</v>
       </c>
       <c r="F87" t="n">
-        <v>0.004215290309823001</v>
+        <v>0.004215290309823</v>
       </c>
     </row>
     <row r="88">
@@ -2194,7 +2194,7 @@
         <v>0.3</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9367602570087411</v>
+        <v>0.9367602570087412</v>
       </c>
       <c r="F88" t="n">
         <v>0.002481497993339</v>
@@ -2214,7 +2214,7 @@
         <v>0.5</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9622361373454511</v>
+        <v>0.9622361373454512</v>
       </c>
       <c r="F89" t="n">
         <v>0.004205167077532</v>
@@ -2234,7 +2234,7 @@
         <v>0.7</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9760586191262951</v>
+        <v>0.9760586191262952</v>
       </c>
       <c r="F90" t="n">
         <v>0.004054632984419</v>
@@ -2254,7 +2254,7 @@
         <v>0.9</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9882429670251721</v>
+        <v>0.988242967025172</v>
       </c>
       <c r="F91" t="n">
         <v>0.004578520253702</v>
@@ -2314,7 +2314,7 @@
         <v>0.3</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9220720747507061</v>
+        <v>0.922072074750706</v>
       </c>
       <c r="F94" t="n">
         <v>0.00328224790105</v>
@@ -2334,7 +2334,7 @@
         <v>0.5</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9510331012463471</v>
+        <v>0.9510331012463472</v>
       </c>
       <c r="F95" t="n">
         <v>0.002798552339495</v>
@@ -2354,7 +2354,7 @@
         <v>0.7</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9748433209676611</v>
+        <v>0.9748433209676612</v>
       </c>
       <c r="F96" t="n">
         <v>0.003095031279324</v>
@@ -2454,7 +2454,7 @@
         <v>0.5</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9321136528634171</v>
+        <v>0.9321136528634172</v>
       </c>
       <c r="F101" t="n">
         <v>0.003498306155906</v>
@@ -2474,7 +2474,7 @@
         <v>0.7</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9623931089616051</v>
+        <v>0.9623931089616052</v>
       </c>
       <c r="F102" t="n">
         <v>0.003738373563591</v>
@@ -2494,7 +2494,7 @@
         <v>0.9</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9743703262702611</v>
+        <v>0.9743703262702612</v>
       </c>
       <c r="F103" t="n">
         <v>0.004078654314023</v>
@@ -2654,7 +2654,7 @@
         <v>0.1</v>
       </c>
       <c r="E111" t="n">
-        <v>0.9474868882906541</v>
+        <v>0.947486888290654</v>
       </c>
       <c r="F111" t="n">
         <v>0.003256057199277</v>
@@ -2694,7 +2694,7 @@
         <v>0.5</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9528490939056021</v>
+        <v>0.952849093905602</v>
       </c>
       <c r="F113" t="n">
         <v>0.004003587215697</v>
@@ -2714,7 +2714,7 @@
         <v>0.7</v>
       </c>
       <c r="E114" t="n">
-        <v>0.9501875193973031</v>
+        <v>0.9501875193973032</v>
       </c>
       <c r="F114" t="n">
         <v>0.003812112923042</v>
@@ -2734,7 +2734,7 @@
         <v>0.9</v>
       </c>
       <c r="E115" t="n">
-        <v>0.9463433594574561</v>
+        <v>0.946343359457456</v>
       </c>
       <c r="F115" t="n">
         <v>0.003097390396372</v>
@@ -2774,7 +2774,7 @@
         <v>0.1</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9008045925535041</v>
+        <v>0.900804592553504</v>
       </c>
       <c r="F117" t="n">
         <v>0.003091429219673</v>
@@ -2834,7 +2834,7 @@
         <v>0.7</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9369355609426641</v>
+        <v>0.9369355609426639</v>
       </c>
       <c r="F120" t="n">
         <v>0.002432737178058</v>
@@ -2854,7 +2854,7 @@
         <v>0.9</v>
       </c>
       <c r="E121" t="n">
-        <v>0.9446120661262761</v>
+        <v>0.944612066126276</v>
       </c>
       <c r="F121" t="n">
         <v>0.002683279299141</v>
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>0.9017751263437581</v>
+        <v>0.901775126343758</v>
       </c>
       <c r="F122" t="n">
         <v>0.003576442482279</v>
@@ -2894,7 +2894,7 @@
         <v>0.1</v>
       </c>
       <c r="E123" t="n">
-        <v>0.9204119497274541</v>
+        <v>0.920411949727454</v>
       </c>
       <c r="F123" t="n">
         <v>0.004756499392434</v>
@@ -2934,7 +2934,7 @@
         <v>0.5</v>
       </c>
       <c r="E125" t="n">
-        <v>0.9697933258083431</v>
+        <v>0.9697933258083432</v>
       </c>
       <c r="F125" t="n">
         <v>0.003336093281171</v>
@@ -2954,7 +2954,7 @@
         <v>0.7</v>
       </c>
       <c r="E126" t="n">
-        <v>0.9844905737949211</v>
+        <v>0.9844905737949212</v>
       </c>
       <c r="F126" t="n">
         <v>0.004736357498346</v>
@@ -2974,7 +2974,7 @@
         <v>0.9</v>
       </c>
       <c r="E127" t="n">
-        <v>0.9959242872295291</v>
+        <v>0.9959242872295292</v>
       </c>
       <c r="F127" t="n">
         <v>0.003419157318499</v>
@@ -3074,10 +3074,10 @@
         <v>0.7</v>
       </c>
       <c r="E132" t="n">
-        <v>0.9930013797212541</v>
+        <v>0.993001379721254</v>
       </c>
       <c r="F132" t="n">
-        <v>0.005238581976678001</v>
+        <v>0.005238581976678</v>
       </c>
     </row>
     <row r="133">
@@ -3154,7 +3154,7 @@
         <v>0.3</v>
       </c>
       <c r="E136" t="n">
-        <v>0.9048223295923921</v>
+        <v>0.9048223295923919</v>
       </c>
       <c r="F136" t="n">
         <v>0.003455758824184</v>
@@ -3194,7 +3194,7 @@
         <v>0.7</v>
       </c>
       <c r="E138" t="n">
-        <v>0.9876434535320051</v>
+        <v>0.9876434535320052</v>
       </c>
       <c r="F138" t="n">
         <v>0.003765427205833</v>
@@ -3214,7 +3214,7 @@
         <v>0.9</v>
       </c>
       <c r="E139" t="n">
-        <v>0.9945660542133531</v>
+        <v>0.9945660542133532</v>
       </c>
       <c r="F139" t="n">
         <v>0.003919121864596</v>
@@ -3314,7 +3314,7 @@
         <v>0.7</v>
       </c>
       <c r="E144" t="n">
-        <v>0.9172576159640471</v>
+        <v>0.9172576159640472</v>
       </c>
       <c r="F144" t="n">
         <v>0.0037023685454</v>
@@ -3334,7 +3334,7 @@
         <v>0.9</v>
       </c>
       <c r="E145" t="n">
-        <v>0.9371642753763261</v>
+        <v>0.937164275376326</v>
       </c>
       <c r="F145" t="n">
         <v>0.002760802113855</v>
@@ -3357,7 +3357,7 @@
         <v>0.9430550794063161</v>
       </c>
       <c r="F146" t="n">
-        <v>0.004092394804640001</v>
+        <v>0.00409239480464</v>
       </c>
     </row>
     <row r="147">
@@ -3374,7 +3374,7 @@
         <v>0.1</v>
       </c>
       <c r="E147" t="n">
-        <v>0.9455467562255441</v>
+        <v>0.945546756225544</v>
       </c>
       <c r="F147" t="n">
         <v>0.00388517726925</v>
@@ -3394,7 +3394,7 @@
         <v>0.3</v>
       </c>
       <c r="E148" t="n">
-        <v>0.9487125215061191</v>
+        <v>0.9487125215061192</v>
       </c>
       <c r="F148" t="n">
         <v>0.00463790809227</v>
@@ -3417,7 +3417,7 @@
         <v>0.947242651374782</v>
       </c>
       <c r="F149" t="n">
-        <v>0.005055794302364001</v>
+        <v>0.005055794302364</v>
       </c>
     </row>
     <row r="150">
@@ -3454,10 +3454,10 @@
         <v>0.9</v>
       </c>
       <c r="E151" t="n">
-        <v>0.9471706553929731</v>
+        <v>0.9471706553929732</v>
       </c>
       <c r="F151" t="n">
-        <v>0.004372495946004001</v>
+        <v>0.004372495946004</v>
       </c>
     </row>
     <row r="152">
@@ -3514,7 +3514,7 @@
         <v>0.3</v>
       </c>
       <c r="E154" t="n">
-        <v>0.9091159855598431</v>
+        <v>0.9091159855598432</v>
       </c>
       <c r="F154" t="n">
         <v>0.003063352168707</v>
@@ -3554,7 +3554,7 @@
         <v>0.7</v>
       </c>
       <c r="E156" t="n">
-        <v>0.9341571012805441</v>
+        <v>0.934157101280544</v>
       </c>
       <c r="F156" t="n">
         <v>0.003656078402253</v>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>0.9016938286171171</v>
+        <v>0.9016938286171172</v>
       </c>
       <c r="F158" t="n">
         <v>0.003750034259287</v>
@@ -3614,10 +3614,10 @@
         <v>0.1</v>
       </c>
       <c r="E159" t="n">
-        <v>0.9166907738059951</v>
+        <v>0.9166907738059952</v>
       </c>
       <c r="F159" t="n">
-        <v>0.004101611654280001</v>
+        <v>0.00410161165428</v>
       </c>
     </row>
     <row r="160">
@@ -3634,7 +3634,7 @@
         <v>0.3</v>
       </c>
       <c r="E160" t="n">
-        <v>0.9427600361444791</v>
+        <v>0.9427600361444792</v>
       </c>
       <c r="F160" t="n">
         <v>0.003438142104954</v>
@@ -3654,7 +3654,7 @@
         <v>0.5</v>
       </c>
       <c r="E161" t="n">
-        <v>0.9666851798331351</v>
+        <v>0.9666851798331352</v>
       </c>
       <c r="F161" t="n">
         <v>0.003464676535942</v>
@@ -3674,7 +3674,7 @@
         <v>0.7</v>
       </c>
       <c r="E162" t="n">
-        <v>0.9912479975092071</v>
+        <v>0.9912479975092072</v>
       </c>
       <c r="F162" t="n">
         <v>0.003628589022274</v>
@@ -3754,7 +3754,7 @@
         <v>0.3</v>
       </c>
       <c r="E166" t="n">
-        <v>0.9351648289360841</v>
+        <v>0.935164828936084</v>
       </c>
       <c r="F166" t="n">
         <v>0.00388618057471</v>
@@ -3774,7 +3774,7 @@
         <v>0.5</v>
       </c>
       <c r="E167" t="n">
-        <v>0.9740052534184771</v>
+        <v>0.9740052534184772</v>
       </c>
       <c r="F167" t="n">
         <v>0.003352583709564</v>
@@ -3794,7 +3794,7 @@
         <v>0.7</v>
       </c>
       <c r="E168" t="n">
-        <v>0.9959180011599261</v>
+        <v>0.995918001159926</v>
       </c>
       <c r="F168" t="n">
         <v>0.003551905665844</v>
@@ -3814,10 +3814,10 @@
         <v>0.9</v>
       </c>
       <c r="E169" t="n">
-        <v>1.009559770265924</v>
+        <v>1.014224817794779</v>
       </c>
       <c r="F169" t="n">
-        <v>0.003301831745285</v>
+        <v>0.003412664399589</v>
       </c>
     </row>
     <row r="170">
@@ -3837,7 +3837,7 @@
         <v>0.8637575541872899</v>
       </c>
       <c r="F170" t="n">
-        <v>0.004414539928670001</v>
+        <v>0.00441453992867</v>
       </c>
     </row>
     <row r="171">
@@ -3857,7 +3857,7 @@
         <v>0.8791155754381851</v>
       </c>
       <c r="F171" t="n">
-        <v>0.004073973331281001</v>
+        <v>0.004073973331281</v>
       </c>
     </row>
     <row r="172">
@@ -3874,7 +3874,7 @@
         <v>0.3</v>
       </c>
       <c r="E172" t="n">
-        <v>0.9160431276629241</v>
+        <v>0.916043127662924</v>
       </c>
       <c r="F172" t="n">
         <v>0.003167305015532</v>
@@ -3894,7 +3894,7 @@
         <v>0.5</v>
       </c>
       <c r="E173" t="n">
-        <v>0.9553675529649671</v>
+        <v>0.9553675529649672</v>
       </c>
       <c r="F173" t="n">
         <v>0.003023802921912</v>
@@ -3917,7 +3917,7 @@
         <v>0.991240138198715</v>
       </c>
       <c r="F174" t="n">
-        <v>0.004500139242516001</v>
+        <v>0.004500139242516</v>
       </c>
     </row>
     <row r="175">
